--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/32.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/32.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3756744182781744</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.942886498636191</v>
+        <v>-1.941238104341555</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1313877635887978</v>
+        <v>0.1304796136762525</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1478391335570363</v>
+        <v>-0.1471164097520365</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3956940373849117</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.085944930679607</v>
+        <v>-2.083503000247562</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06857795476599646</v>
+        <v>0.06822608317608746</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1203522681975892</v>
+        <v>-0.119539021410953</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.4297388755175292</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.297803018838777</v>
+        <v>-2.295676458794369</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05573683180645445</v>
+        <v>0.05540832098599999</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1432910837538557</v>
+        <v>-0.1427464858159468</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4643290215266495</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.467119685773141</v>
+        <v>-2.465281485226687</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001665410807741694</v>
+        <v>0.001071171234741854</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1689251480859398</v>
+        <v>-0.1682900271663945</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4889981481260608</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.53788748671544</v>
+        <v>-2.534903878441668</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07305839043687461</v>
+        <v>-0.07298830812851098</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1719562079226662</v>
+        <v>-0.1716335372945754</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4978701442242894</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.337833887371267</v>
+        <v>-2.334399854261449</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1248886376160425</v>
+        <v>-0.1242316159751336</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1478347534127636</v>
+        <v>-0.1473062160038547</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4837633768770896</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.030455802984622</v>
+        <v>-2.026929056821032</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1749390861723927</v>
+        <v>-0.1740718176063929</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1162991746972266</v>
+        <v>-0.1161955112827721</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.437394586907799</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.676814634789444</v>
+        <v>-1.673215616245354</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1049648213675024</v>
+        <v>-0.1036653785665937</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07349786491223813</v>
+        <v>-0.07361904890378354</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.346169323553826</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.245304721761832</v>
+        <v>-1.242313083223561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009092675446194246</v>
+        <v>0.009946803579375834</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01053767113607321</v>
+        <v>-0.01078587931152769</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2011116973031587</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.932325892898462</v>
+        <v>-0.9297284673447355</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07471307684399481</v>
+        <v>0.07494960463472201</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01591356820679904</v>
+        <v>-0.01628150032570803</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.004872887037493919</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5679329305618326</v>
+        <v>-0.5652785631325606</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1462919345007938</v>
+        <v>0.1463853775786119</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02160629571325206</v>
+        <v>-0.02132742652788849</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2266138735550986</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1240023884248609</v>
+        <v>-0.1215509676802252</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01058338454701203</v>
+        <v>0.01089875493464831</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04734593542800215</v>
+        <v>0.04760874408436572</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4614958013145743</v>
       </c>
       <c r="E14" t="n">
-        <v>0.32976011755629</v>
+        <v>0.3317487030561076</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1628644884605778</v>
+        <v>-0.1625388977363051</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1153754161758021</v>
+        <v>0.115871832526711</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6743864870519709</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8744456583506891</v>
+        <v>0.8762050163002342</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1815604042646637</v>
+        <v>-0.1820845615292999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1969672836400529</v>
+        <v>0.1977513294648709</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.863811468016531</v>
       </c>
       <c r="E16" t="n">
-        <v>1.57399119990732</v>
+        <v>1.574775245732138</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.516546538002301</v>
+        <v>-0.5175335305117552</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2624285397959444</v>
+        <v>0.2630446800903078</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.053564360742289</v>
       </c>
       <c r="E17" t="n">
-        <v>2.279302471374948</v>
+        <v>2.279153546469676</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6837892066235288</v>
+        <v>-0.6840432549913469</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3726534103710057</v>
+        <v>0.3734695772538237</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.25996294321676</v>
       </c>
       <c r="E18" t="n">
-        <v>3.042770378399652</v>
+        <v>3.041875368919925</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9623751426574539</v>
+        <v>-0.9620291112599086</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4837776705700668</v>
+        <v>0.4849179681290665</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.477336699695158</v>
       </c>
       <c r="E19" t="n">
-        <v>3.67191970125312</v>
+        <v>3.670985270474938</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.20285090342248</v>
+        <v>-1.202091678415208</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6042798196570345</v>
+        <v>0.6047703958155798</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.691007606329219</v>
       </c>
       <c r="E20" t="n">
-        <v>4.333153580904306</v>
+        <v>4.331075932470942</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.463051913895683</v>
+        <v>-1.462140843886956</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7166655614066406</v>
+        <v>0.7170714547759133</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.888020291030108</v>
       </c>
       <c r="E21" t="n">
-        <v>4.856849470343802</v>
+        <v>4.853935214354347</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.735797657565973</v>
+        <v>-1.734327389138429</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8643873870524191</v>
+        <v>0.8646385153240554</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.065096579827828</v>
       </c>
       <c r="E22" t="n">
-        <v>5.375242465117117</v>
+        <v>5.370584911707118</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.955328298442869</v>
+        <v>-1.953490827920461</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9509609386028505</v>
+        <v>0.9509302775929414</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.216925577139757</v>
       </c>
       <c r="E23" t="n">
-        <v>5.722257935075751</v>
+        <v>5.717222229210207</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.203897835799848</v>
+        <v>-2.202324633981894</v>
       </c>
       <c r="G23" t="n">
-        <v>1.06102228379173</v>
+        <v>1.061067545282548</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.337686161874434</v>
       </c>
       <c r="E24" t="n">
-        <v>6.144953537778546</v>
+        <v>6.138771694161639</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.433110785591604</v>
+        <v>-2.431251414347832</v>
       </c>
       <c r="G24" t="n">
-        <v>1.181493771868789</v>
+        <v>1.181308345761243</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.422108550108791</v>
       </c>
       <c r="E25" t="n">
-        <v>6.435002311374196</v>
+        <v>6.427823254911198</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.556932354013253</v>
+        <v>-2.555345281738435</v>
       </c>
       <c r="G25" t="n">
-        <v>1.255398486134405</v>
+        <v>1.255215980123041</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.468153533352266</v>
       </c>
       <c r="E26" t="n">
-        <v>6.599238740976243</v>
+        <v>6.590855144838245</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.605646128542376</v>
+        <v>-2.604207981172831</v>
       </c>
       <c r="G26" t="n">
-        <v>1.318811294818752</v>
+        <v>1.318790854145479</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.475604641859549</v>
       </c>
       <c r="E27" t="n">
-        <v>6.703546036638851</v>
+        <v>6.694692305015581</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.689901123724445</v>
+        <v>-2.688017661687172</v>
       </c>
       <c r="G27" t="n">
-        <v>1.329601050210567</v>
+        <v>1.329431684632022</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.443822107148176</v>
       </c>
       <c r="E28" t="n">
-        <v>6.887303309216347</v>
+        <v>6.878007183021531</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.717076998840528</v>
+        <v>-2.715757845390392</v>
       </c>
       <c r="G28" t="n">
-        <v>1.369076370444466</v>
+        <v>1.368822322076647</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.374867482745655</v>
       </c>
       <c r="E29" t="n">
-        <v>6.850837148097812</v>
+        <v>6.841219811322996</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738141112648068</v>
+        <v>-2.736373724434023</v>
       </c>
       <c r="G29" t="n">
-        <v>1.35465547545056</v>
+        <v>1.35422038111947</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.273128722523419</v>
       </c>
       <c r="E30" t="n">
-        <v>6.786349744018557</v>
+        <v>6.776644804358286</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.640656621714276</v>
+        <v>-2.639330168023685</v>
       </c>
       <c r="G30" t="n">
-        <v>1.337892663318837</v>
+        <v>1.337320324467201</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.147512918354769</v>
       </c>
       <c r="E31" t="n">
-        <v>6.810018583620277</v>
+        <v>6.800212900641735</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.541371891484394</v>
+        <v>-2.540293645969258</v>
       </c>
       <c r="G31" t="n">
-        <v>1.299781028001848</v>
+        <v>1.299033483379302</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.006685347121219</v>
       </c>
       <c r="E32" t="n">
-        <v>6.768981011929107</v>
+        <v>6.759014723660564</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.407767270829611</v>
+        <v>-2.407047467120794</v>
       </c>
       <c r="G32" t="n">
-        <v>1.253335438181951</v>
+        <v>1.252173239901588</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.862334173458182</v>
       </c>
       <c r="E33" t="n">
-        <v>6.601919389271151</v>
+        <v>6.591487345661609</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.373319626196757</v>
+        <v>-2.372658954435621</v>
       </c>
       <c r="G33" t="n">
-        <v>1.195191943057694</v>
+        <v>1.194161149105512</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.72382293253935</v>
       </c>
       <c r="E34" t="n">
-        <v>6.304790842482686</v>
+        <v>6.295915210138052</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.336106650479722</v>
+        <v>-2.336010287305721</v>
       </c>
       <c r="G34" t="n">
-        <v>1.14568171229498</v>
+        <v>1.144420230744435</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.59772576825542</v>
       </c>
       <c r="E35" t="n">
-        <v>6.109061175559738</v>
+        <v>6.100801683509467</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.298363677305686</v>
+        <v>-2.297503708980141</v>
       </c>
       <c r="G35" t="n">
-        <v>1.085323324216814</v>
+        <v>1.084734924836178</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.486165717801619</v>
       </c>
       <c r="E36" t="n">
-        <v>5.911690414582609</v>
+        <v>5.903606128303248</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.234656668931021</v>
+        <v>-2.234347138735749</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063259077467002</v>
+        <v>1.062315886400275</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.38678738848531</v>
       </c>
       <c r="E37" t="n">
-        <v>5.605855601028055</v>
+        <v>5.598020982972239</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.190197474538806</v>
+        <v>-2.189294434794579</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9581706560757576</v>
+        <v>0.957443552126485</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.297652241707748</v>
       </c>
       <c r="E38" t="n">
-        <v>5.299188560061683</v>
+        <v>5.291959861963594</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.143787655897137</v>
+        <v>-2.1431510749295</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8845740119573228</v>
+        <v>0.8841447578185957</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.212895997942625</v>
       </c>
       <c r="E39" t="n">
-        <v>4.985146816188131</v>
+        <v>4.977737072126769</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.08506598172888</v>
+        <v>-2.084896616150334</v>
       </c>
       <c r="G39" t="n">
-        <v>0.803941396088799</v>
+        <v>0.8037048682980718</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.130801360792889</v>
       </c>
       <c r="E40" t="n">
-        <v>4.694121270419664</v>
+        <v>4.687586095164757</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.104947456582784</v>
+        <v>-2.105020458987329</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7633243182478099</v>
+        <v>0.7630439890143554</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.049346836920182</v>
       </c>
       <c r="E41" t="n">
-        <v>4.372935511237295</v>
+        <v>4.366489398915934</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.999787492835085</v>
+        <v>-1.999285966315857</v>
       </c>
       <c r="G41" t="n">
-        <v>0.683764837726104</v>
+        <v>0.6835706513300132</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9698030237183194</v>
       </c>
       <c r="E42" t="n">
-        <v>3.995237130648215</v>
+        <v>3.989699168239398</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.909655074063063</v>
+        <v>-1.9089666613882</v>
       </c>
       <c r="G42" t="n">
-        <v>0.604462325668398</v>
+        <v>0.6041338148479436</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8926934583185554</v>
       </c>
       <c r="E43" t="n">
-        <v>3.693731359683205</v>
+        <v>3.688932181608388</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.857035670890759</v>
+        <v>-1.856369158937259</v>
       </c>
       <c r="G43" t="n">
-        <v>0.564195659369227</v>
+        <v>0.5638963495105908</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8180587128626734</v>
       </c>
       <c r="E44" t="n">
-        <v>3.39241101482574</v>
+        <v>3.388385662239105</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.762240588540421</v>
+        <v>-1.761611307813239</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5153453703436037</v>
+        <v>0.5150124793788766</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7462271841505375</v>
       </c>
       <c r="E45" t="n">
-        <v>3.109954491302816</v>
+        <v>3.105708671454454</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.679520103901898</v>
+        <v>-1.679022227502898</v>
       </c>
       <c r="G45" t="n">
-        <v>0.420432024097902</v>
+        <v>0.4203750822223565</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6765228880716114</v>
       </c>
       <c r="E46" t="n">
-        <v>2.815175161892622</v>
+        <v>2.811415538058533</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.601092160650646</v>
+        <v>-1.600530042135646</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3825043548403667</v>
+        <v>0.3825671369082758</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6095183175524349</v>
       </c>
       <c r="E47" t="n">
-        <v>2.485490462773075</v>
+        <v>2.481796541103076</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.479509575976406</v>
+        <v>-1.479064261308679</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3187761757683838</v>
+        <v>0.3188988198080202</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5442785547559221</v>
       </c>
       <c r="E48" t="n">
-        <v>2.192549333909335</v>
+        <v>2.189608797054245</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.375669495702889</v>
+        <v>-1.375538091374707</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2905052645841187</v>
+        <v>0.2905607464115732</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4820849654881735</v>
       </c>
       <c r="E49" t="n">
-        <v>1.912230320791501</v>
+        <v>1.909552592592775</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.28876305318773</v>
+        <v>-1.28885941636173</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2364221632006787</v>
+        <v>0.2368630977241331</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4230011931251069</v>
       </c>
       <c r="E50" t="n">
-        <v>1.778294269220083</v>
+        <v>1.775626761357993</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.167219889811944</v>
+        <v>-1.167714846114762</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1978579129755072</v>
+        <v>0.1984492324523252</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3675117048448979</v>
       </c>
       <c r="E51" t="n">
-        <v>1.503640242694975</v>
+        <v>1.501356727480794</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.091008299562692</v>
+        <v>-1.091317829757965</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1671341209985154</v>
+        <v>0.1675677552815153</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3165468890064096</v>
       </c>
       <c r="E52" t="n">
-        <v>1.344589903911836</v>
+        <v>1.342995531396563</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.008540403243896</v>
+        <v>-1.009263127048896</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1446172593405215</v>
+        <v>0.1448275062656123</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2694050356988381</v>
       </c>
       <c r="E53" t="n">
-        <v>1.101846688461628</v>
+        <v>1.100874296433083</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.935301470907734</v>
+        <v>-0.9361351583676428</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1009851821918059</v>
+        <v>0.1012655114252604</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2265946487936715</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9570522592381215</v>
+        <v>0.9566741067825761</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9424104450623685</v>
+        <v>-0.9434368588702773</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05025435122509228</v>
+        <v>0.05043685723645587</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1870486327581493</v>
       </c>
       <c r="E55" t="n">
-        <v>0.795896531107892</v>
+        <v>0.7953971946608013</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8963692885636535</v>
+        <v>-0.8966744386146535</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02272952461528149</v>
+        <v>0.02285654879919055</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1504403442848856</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6500056057681131</v>
+        <v>0.6496435138415677</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8469101594841214</v>
+        <v>-0.847843130214212</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01608484575355601</v>
+        <v>0.01615346801382871</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1164411090417737</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5068464304064242</v>
+        <v>0.5066157428080607</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8150241692267662</v>
+        <v>-0.8159454595721297</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01171300984925471</v>
+        <v>-0.01110562984343669</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.08451341089009731</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3968668479106356</v>
+        <v>0.3968493273335447</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8092131778249496</v>
+        <v>-0.8099344415818586</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02721288038234146</v>
+        <v>-0.02719097966097783</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.05473974591826859</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2512314309867656</v>
+        <v>0.2509394213685838</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7444746454740579</v>
+        <v>-0.7450367639890578</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09276465951986931</v>
+        <v>-0.09218356037968765</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.02614391199206061</v>
       </c>
       <c r="E60" t="n">
-        <v>0.191112490795509</v>
+        <v>0.1907314182437818</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.727362881848608</v>
+        <v>-0.7283294336847895</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08001259949387274</v>
+        <v>-0.07928257544841839</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.0015824526076218</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03306082490655145</v>
+        <v>0.03291628014555149</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6996613894197973</v>
+        <v>-0.7005432584667061</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1364332378708576</v>
+        <v>-0.1358915600291305</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.02961585754496755</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05403396381233426</v>
+        <v>-0.05450117920142504</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7180740558942469</v>
+        <v>-0.7187996997954285</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1684637728892126</v>
+        <v>-0.1679366955283946</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.0585412927376038</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1475631844678546</v>
+        <v>-0.1478172328356727</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7519676122766014</v>
+        <v>-0.7525603918015104</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1837752972185721</v>
+        <v>-0.1829810310571178</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.08854672155335168</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2605679866080061</v>
+        <v>-0.2610687831031878</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7548541273523279</v>
+        <v>-0.7554877882237823</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2168366261891087</v>
+        <v>-0.2164716141663816</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.119503009428067</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4133430386964196</v>
+        <v>-0.4140920433670557</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7359085433246966</v>
+        <v>-0.7366517078029692</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2374641856174668</v>
+        <v>-0.2369414884009215</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.150725347235409</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4377886238825039</v>
+        <v>-0.4384266648982311</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7664264685208703</v>
+        <v>-0.7674791631944154</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2530764798535535</v>
+        <v>-0.2527786300430082</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1824131123066722</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5243154538940261</v>
+        <v>-0.5251228604882987</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8069267425145866</v>
+        <v>-0.8076845074737683</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2681120550937313</v>
+        <v>-0.2676930212916405</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2140534631671041</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5575081871927445</v>
+        <v>-0.558426557441926</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7556104322634186</v>
+        <v>-0.7574442526655999</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3192955009686267</v>
+        <v>-0.3183435496133542</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2454784073941814</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6381846045039956</v>
+        <v>-0.6386488997969045</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8013420585668609</v>
+        <v>-0.8028838693508604</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3177449298960816</v>
+        <v>-0.3171609106597181</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2758091120630696</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7479451797861479</v>
+        <v>-0.7482240489715115</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7981474733439526</v>
+        <v>-0.7999068312934976</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3575619013832528</v>
+        <v>-0.3567121533943439</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3047422394102829</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.776056945728504</v>
+        <v>-0.7764336381359584</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9271149812620089</v>
+        <v>-0.9285545886796449</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4023401162833317</v>
+        <v>-0.4013575039181501</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3320033047117657</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8186728294059471</v>
+        <v>-0.8196466814825832</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9937311354578092</v>
+        <v>-0.9950977404708997</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4198183519795997</v>
+        <v>-0.4189627637983272</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.357410151540738</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8699993599937516</v>
+        <v>-0.8706111201438422</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.028145929008618</v>
+        <v>-1.029325647866072</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4530884678271362</v>
+        <v>-0.4521934583474091</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3803642739763423</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8122194168441307</v>
+        <v>-0.8129406806010395</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.053103991074611</v>
+        <v>-1.054400513779338</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4674772417630414</v>
+        <v>-0.4664844090612235</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4006193977512412</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7962099895273168</v>
+        <v>-0.7969341733804075</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.118645549875503</v>
+        <v>-1.119533259114776</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4559925034799536</v>
+        <v>-0.4552931404444083</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4179164951186814</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7135055654177935</v>
+        <v>-0.713866197296248</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.161210331869764</v>
+        <v>-1.161473140526128</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4587987159106801</v>
+        <v>-0.4579752487874076</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4311620616386008</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5620153556493797</v>
+        <v>-0.5626679971460159</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.145653519461132</v>
+        <v>-1.14603605206095</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4395538220244126</v>
+        <v>-0.4389245412972309</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4389614328792688</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4236130169678714</v>
+        <v>-0.4244175034659621</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.170075743877762</v>
+        <v>-1.17020130801358</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4521131557024092</v>
+        <v>-0.4512342067516821</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4398642688696559</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3207015272801718</v>
+        <v>-0.3218432848872623</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.252223889664649</v>
+        <v>-1.252390335147012</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3955289919392426</v>
+        <v>-0.3947799872686064</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4329017921319133</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1321611371568587</v>
+        <v>-0.1329554033183131</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.309253368095543</v>
+        <v>-1.309076702276543</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3734676652856121</v>
+        <v>-0.3726003967196124</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4170218405274276</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0264745479684623</v>
+        <v>0.0253152697842808</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.30142459023209</v>
+        <v>-1.300812830081999</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3231295872553529</v>
+        <v>-0.322840497733353</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3909085864190809</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2381902814387691</v>
+        <v>0.2368353568104058</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289287210452366</v>
+        <v>-1.288364460058912</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2873277480181807</v>
+        <v>-0.2869408352740899</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3533240992314481</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4205546681375383</v>
+        <v>0.4190303779306296</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.230702780804655</v>
+        <v>-1.229604824640291</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2697984106387309</v>
+        <v>-0.2694406988564582</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3035224103802948</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6267762406417556</v>
+        <v>0.6254928583698469</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.153095384580494</v>
+        <v>-1.152312798803767</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2450126342474648</v>
+        <v>-0.2446709829941922</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2422672024256723</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7408614783691796</v>
+        <v>0.739639418117089</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.065003383015517</v>
+        <v>-1.064425203971517</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2094750637147471</v>
+        <v>-0.2093261388094744</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1714340821157603</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9660008939873009</v>
+        <v>0.9646196884933013</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9987902020928079</v>
+        <v>-0.998628136754717</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1804814287254821</v>
+        <v>-0.1801864990111186</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09492069961436791</v>
       </c>
       <c r="E87" t="n">
-        <v>1.109142548771899</v>
+        <v>1.107683960729081</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9429214618941865</v>
+        <v>-0.942753556363732</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1507081280556719</v>
+        <v>-0.1501197286750357</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.01846940825471056</v>
       </c>
       <c r="E88" t="n">
-        <v>1.211405777107235</v>
+        <v>1.209789503870599</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8883755252659284</v>
+        <v>-0.8878309273280195</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1143733712653181</v>
+        <v>-0.1138419137602273</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05006125493522168</v>
       </c>
       <c r="E89" t="n">
-        <v>1.333506678853748</v>
+        <v>1.332018889849112</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7920503125163179</v>
+        <v>-0.7910647800549545</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1128286403851367</v>
+        <v>-0.112376025476955</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1026560445932184</v>
       </c>
       <c r="E90" t="n">
-        <v>1.370970052818374</v>
+        <v>1.369539205689283</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6920881199722538</v>
+        <v>-0.6910281250582542</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07834230447787319</v>
+        <v>-0.07819629966878232</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1324330896536855</v>
       </c>
       <c r="E91" t="n">
-        <v>1.41556722175518</v>
+        <v>1.414511606985453</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5866799480491003</v>
+        <v>-0.5856287134236461</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01695020235134422</v>
+        <v>-0.01693998201470786</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1363665152542487</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438967412508174</v>
+        <v>1.437688410380538</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4589272001426801</v>
+        <v>-0.4579314473446803</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02040321608634329</v>
+        <v>-0.02062222329997959</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1158812228793394</v>
       </c>
       <c r="E93" t="n">
-        <v>1.410349009878272</v>
+        <v>1.409252513762</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3504178860744365</v>
+        <v>-0.3496922421732548</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01396148390925411</v>
+        <v>-0.01388848150470867</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07553701701365807</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410103721799</v>
+        <v>1.408929843133909</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2111088575284739</v>
+        <v>-0.2099773202580197</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01666841306979884</v>
+        <v>-0.01688596023534423</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.0227282293923289</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335666089980202</v>
+        <v>1.334461550305202</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09542194704532314</v>
+        <v>-0.09426558895732345</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01922203718079815</v>
+        <v>-0.01913881443961635</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0343596068025184</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257261507498405</v>
+        <v>1.25596936493795</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03167085912400636</v>
+        <v>0.03246366523736979</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03378601688761242</v>
+        <v>-0.03374805563724879</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08986953473446579</v>
       </c>
       <c r="E97" t="n">
-        <v>1.174853473151336</v>
+        <v>1.1735262894367</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1323616156654339</v>
+        <v>0.1325426616287066</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05242061067188015</v>
+        <v>-0.05227022571851655</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1428584507247164</v>
       </c>
       <c r="E98" t="n">
-        <v>1.076976229281089</v>
+        <v>1.076129401388362</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1933784854325993</v>
+        <v>0.1935843522134174</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05751617850915151</v>
+        <v>-0.05726651028560611</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.191084610664797</v>
       </c>
       <c r="E99" t="n">
-        <v>0.93931121488549</v>
+        <v>0.9388235588231264</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1947480105418717</v>
+        <v>0.1945961655404172</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05168912657833489</v>
+        <v>-0.05196361561942572</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2396093189520224</v>
       </c>
       <c r="E100" t="n">
-        <v>0.844736599796879</v>
+        <v>0.8442372633497882</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2114086193072308</v>
+        <v>0.2111516508432309</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04526783507451843</v>
+        <v>-0.04540069945079112</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2856450926627147</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6916052959742837</v>
+        <v>0.6917410804467382</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1976578863870527</v>
+        <v>0.1974009179230528</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04967572026097179</v>
+        <v>-0.04936911016188097</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3351838112745067</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6318922491522997</v>
+        <v>0.6318966292965724</v>
       </c>
       <c r="F102" t="n">
-        <v>0.206848889119323</v>
+        <v>0.2064473758943231</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08160405191296322</v>
+        <v>-0.08131642243905421</v>
       </c>
     </row>
   </sheetData>
